--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2486816.741369967</v>
+        <v>2484564.66165876</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9265858.604530627</v>
+        <v>9265858.604530625</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>92.72329049755739</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>207.8032340316356</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>130.118570034933</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>258.2317318494241</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>79.03187764303603</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>129.5398680316083</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>152.5661273824818</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>134.631133566647</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,16 +1111,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.8460807091497</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>298.7307299422358</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>255.2442932547859</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805175929</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>106.9094576655894</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,16 +1768,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>28.75188085812011</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>140.7058473537592</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,10 +2248,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.64674755991214</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>66.25628701154714</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>212.5602966632231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877059918</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>32.84316668127778</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>86.09789039964274</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>75.2135622723823</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>51.3656974031032</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>112.5284434523311</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,10 +4147,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>107.4021082756243</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1758.295537883725</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C2" t="n">
-        <v>1389.333020943313</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1031.067322336563</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1031.067322336563</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2535.034709923658</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2535.034709923658</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2144.895377947847</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.189385922801</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,34 +4425,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>907.8932097569433</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C4" t="n">
-        <v>907.8932097569433</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>757.7765703446075</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>609.8634767622144</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>462.973529264304</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>295.270692639023</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4516,22 +4516,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1163.171458061136</v>
       </c>
       <c r="V4" t="n">
-        <v>1356.675339798491</v>
+        <v>908.4869698552495</v>
       </c>
       <c r="W4" t="n">
-        <v>1356.675339798491</v>
+        <v>619.069799818289</v>
       </c>
       <c r="X4" t="n">
-        <v>1128.685788900473</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y4" t="n">
-        <v>907.8932097569433</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565139</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1343.379050624727</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>985.1133520179767</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>599.3250994197324</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>188.3391946301248</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,25 +4565,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605072</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629261</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>663.8430895008161</v>
+        <v>669.4690763615333</v>
       </c>
       <c r="C7" t="n">
-        <v>663.8430895008161</v>
+        <v>500.5328934336264</v>
       </c>
       <c r="D7" t="n">
-        <v>513.7264500884803</v>
+        <v>350.4162540212907</v>
       </c>
       <c r="E7" t="n">
-        <v>513.7264500884803</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="F7" t="n">
-        <v>366.8365025905699</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>202.5031604388976</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310558</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X7" t="n">
-        <v>845.4915543310558</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="Y7" t="n">
-        <v>845.4915543310558</v>
+        <v>851.1175411917731</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4811,13 +4811,13 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>1976.204921733553</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>945.3964936596652</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4993,19 +4993,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1166.189072803195</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1166.189072803195</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1166.189072803195</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1166.189072803195</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>945.3964936596652</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5039,19 +5039,19 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876675</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876675</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D13" t="n">
-        <v>430.7826650753317</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>430.7826650753317</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>283.8927175774213</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602302</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396415</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614373</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179072</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5416,22 +5416,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5507,19 +5507,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5531,31 +5531,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572603</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>377.6556127449245</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
         <v>235.5284942057738</v>
@@ -5665,10 +5665,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
@@ -5771,28 +5771,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,16 +5984,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343192</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2570777219835</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>449.3439841395904</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>302.45403664168</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797186</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>924.8344286397182</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.432392194325</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,16 +6488,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852888</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273902</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6701,16 +6701,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,16 +7014,16 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>558.0193492433381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,13 +7163,13 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819168</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695811</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>516.389687887188</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>369.4997403892776</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,19 +7488,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>228.9331431646415</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>562.8579153358621</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1058.183521551621</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1655.562009178173</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.159972732779</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
         <v>2283.159972732779</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
         <v>402.7245934908939</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.297989183966</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2333.297989183966</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.222762528164</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.538274322277</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.121104285317</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.131553387299</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.338974243769</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1655.562009178173</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664531</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>58.61468062667944</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>5.728115292809946</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>88.18825743108313</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>127.9379057921826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.2678512807217</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>73.624177726021</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814956</v>
       </c>
     </row>
     <row r="29">
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>166.0397529241853</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>210.9709121168618</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.49784254931346</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>73.62417772602025</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>797946.9260679778</v>
+        <v>797946.9260679777</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="J2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.614759755</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="L2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597549</v>
-      </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680583</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-891335.3256323237</v>
+        <v>-891335.3256323235</v>
       </c>
       <c r="C6" t="n">
-        <v>437409.4200952695</v>
+        <v>437409.4200952696</v>
       </c>
       <c r="D6" t="n">
-        <v>437409.420095269</v>
+        <v>437409.4200952691</v>
       </c>
       <c r="E6" t="n">
-        <v>187226.6469116868</v>
+        <v>187191.9089862511</v>
       </c>
       <c r="F6" t="n">
-        <v>512639.1087190418</v>
+        <v>512604.3707936062</v>
       </c>
       <c r="G6" t="n">
-        <v>512639.1087190419</v>
+        <v>512604.3707936062</v>
       </c>
       <c r="H6" t="n">
-        <v>512639.1087190419</v>
+        <v>512604.370793606</v>
       </c>
       <c r="I6" t="n">
-        <v>512639.108719042</v>
+        <v>512604.3707936062</v>
       </c>
       <c r="J6" t="n">
-        <v>295107.9063217644</v>
+        <v>295073.1683963286</v>
       </c>
       <c r="K6" t="n">
-        <v>512639.1087190418</v>
+        <v>512604.3707936062</v>
       </c>
       <c r="L6" t="n">
-        <v>512639.1087190419</v>
+        <v>512604.3707936063</v>
       </c>
       <c r="M6" t="n">
-        <v>427584.0807835301</v>
+        <v>427549.3428580943</v>
       </c>
       <c r="N6" t="n">
-        <v>512639.1087190419</v>
+        <v>512604.3707936059</v>
       </c>
       <c r="O6" t="n">
-        <v>512639.1087190419</v>
+        <v>512604.3707936062</v>
       </c>
       <c r="P6" t="n">
-        <v>512639.1087190415</v>
+        <v>512604.370793606</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>272.5496012734502</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>199.0728117100758</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>14.63644487938774</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>27.98010635618874</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>331.8898480104174</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>256.6980706244453</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>13.4596808765464</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>10.1238813476738</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>17.07188943047043</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>71.00037073623321</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>30.967544950827</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28096,13 +28096,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-7.806480349213553e-14</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,28 +32075,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32230,7 +32230,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>270.4557004614713</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,7 +32549,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,13 +32558,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>235.5705495535876</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,13 +32786,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>626.4629682828348</v>
+        <v>314.3020503687028</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8027404478649</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,22 +33260,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>161.7871425275306</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33734,19 +33734,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>601.0567753070492</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33889,10 +33889,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,25 +33968,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>638.4800548179295</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>261.5336801130329</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,10 +34220,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>729.0844763571693</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35583,10 +35583,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066236</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,13 +36206,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>92.97430510914316</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,13 +36434,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>483.8667238383904</v>
+        <v>171.7058059242583</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O27" t="n">
-        <v>310.2064960034205</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>23.94570355317166</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37382,19 +37382,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>469.7150632237159</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>496.3460208959112</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>134.6960534463662</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,10 +37868,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>586.9504424351509</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
